--- a/Stimuli_design/Experimental_Stimuli.xlsx
+++ b/Stimuli_design/Experimental_Stimuli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\Stimuli_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D71EB06-E6E2-4775-B1B1-8A7654865B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4087AC-4B8A-4728-B6D6-EB5B6DBBD0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -14197,7 +14197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL102"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A69" sqref="A69:AD69"/>
     </sheetView>
   </sheetViews>
@@ -22003,10 +22003,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A01077E-4B7E-4B3B-AAFE-136DFDF6EC5E}">
-  <dimension ref="A1:AD47"/>
+  <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A16" zoomScale="77" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26249,6 +26249,12 @@
       <c r="AB47" s="23"/>
       <c r="AC47" s="23"/>
       <c r="AD47" s="24"/>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J49">
+        <f>MIN(Table6[Imageability_SP])</f>
+        <v>4.6580000000000004</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C40:E46">
@@ -37187,7 +37193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>

--- a/Stimuli_design/Experimental_Stimuli.xlsx
+++ b/Stimuli_design/Experimental_Stimuli.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\Stimuli_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4087AC-4B8A-4728-B6D6-EB5B6DBBD0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CF3502-E12F-4B2A-843C-B4718449BEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -14197,7 +14197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A69" sqref="A69:AD69"/>
     </sheetView>
   </sheetViews>
@@ -22005,7 +22005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A01077E-4B7E-4B3B-AAFE-136DFDF6EC5E}">
   <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="77" zoomScaleNormal="107" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="107" workbookViewId="0">
       <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
@@ -37193,7 +37193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
